--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Lpl-Lrp1.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Lpl-Lrp1.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>56.56930800000001</v>
+        <v>31.395717</v>
       </c>
       <c r="H2">
-        <v>169.707924</v>
+        <v>94.187151</v>
       </c>
       <c r="I2">
-        <v>0.1915403855399942</v>
+        <v>0.1018444938508805</v>
       </c>
       <c r="J2">
-        <v>0.1959965330721471</v>
+        <v>0.1031510374238487</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>3.946674666666667</v>
+        <v>2.906846333333333</v>
       </c>
       <c r="N2">
-        <v>11.840024</v>
+        <v>8.720538999999999</v>
       </c>
       <c r="O2">
-        <v>0.008082287850277156</v>
+        <v>0.005520525738044089</v>
       </c>
       <c r="P2">
-        <v>0.008317683527585098</v>
+        <v>0.005624540846623205</v>
       </c>
       <c r="Q2">
-        <v>223.260654794464</v>
+        <v>91.26252484382098</v>
       </c>
       <c r="R2">
-        <v>2009.345893150176</v>
+        <v>821.3627235943889</v>
       </c>
       <c r="S2">
-        <v>0.001548084530887297</v>
+        <v>0.0005622351495818588</v>
       </c>
       <c r="T2">
-        <v>0.001630237134597986</v>
+        <v>0.0005801772233619959</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>56.56930800000001</v>
+        <v>31.395717</v>
       </c>
       <c r="H3">
-        <v>169.707924</v>
+        <v>94.187151</v>
       </c>
       <c r="I3">
-        <v>0.1915403855399942</v>
+        <v>0.1018444938508805</v>
       </c>
       <c r="J3">
-        <v>0.1959965330721471</v>
+        <v>0.1031510374238487</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>557.408233</v>
       </c>
       <c r="O3">
-        <v>0.3805003933455167</v>
+        <v>0.3528665483720876</v>
       </c>
       <c r="P3">
-        <v>0.3915824222792467</v>
+        <v>0.3595150912979765</v>
       </c>
       <c r="Q3">
-        <v>10510.73267143759</v>
+        <v>5833.410378912687</v>
       </c>
       <c r="R3">
-        <v>94596.5940429383</v>
+        <v>52500.69341021418</v>
       </c>
       <c r="S3">
-        <v>0.0728811920395197</v>
+        <v>0.03593751501586252</v>
       </c>
       <c r="T3">
-        <v>0.07674879717872586</v>
+        <v>0.03708435463691596</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>56.56930800000001</v>
+        <v>31.395717</v>
       </c>
       <c r="H4">
-        <v>169.707924</v>
+        <v>94.187151</v>
       </c>
       <c r="I4">
-        <v>0.1915403855399942</v>
+        <v>0.1018444938508805</v>
       </c>
       <c r="J4">
-        <v>0.1959965330721471</v>
+        <v>0.1031510374238487</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>117.3394243333333</v>
+        <v>137.0717086666666</v>
       </c>
       <c r="N4">
-        <v>352.018273</v>
+        <v>411.2151259999999</v>
       </c>
       <c r="O4">
-        <v>0.2402962199184265</v>
+        <v>0.2603191943704447</v>
       </c>
       <c r="P4">
-        <v>0.2472948188906589</v>
+        <v>0.2652240042658267</v>
       </c>
       <c r="Q4">
-        <v>6637.810035655029</v>
+        <v>4303.464574005113</v>
       </c>
       <c r="R4">
-        <v>59740.29032089526</v>
+        <v>38731.18116604602</v>
       </c>
       <c r="S4">
-        <v>0.04602643060697863</v>
+        <v>0.02651207659032692</v>
       </c>
       <c r="T4">
-        <v>0.04846892714927365</v>
+        <v>0.0273581311897273</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>56.56930800000001</v>
+        <v>31.395717</v>
       </c>
       <c r="H5">
-        <v>169.707924</v>
+        <v>94.187151</v>
       </c>
       <c r="I5">
-        <v>0.1915403855399942</v>
+        <v>0.1018444938508805</v>
       </c>
       <c r="J5">
-        <v>0.1959965330721471</v>
+        <v>0.1031510374238487</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>41.458574</v>
+        <v>29.2127365</v>
       </c>
       <c r="N5">
-        <v>82.917148</v>
+        <v>58.425473</v>
       </c>
       <c r="O5">
-        <v>0.0849018875966847</v>
+        <v>0.05547925319534149</v>
       </c>
       <c r="P5">
-        <v>0.05824976335131885</v>
+        <v>0.03768304451958546</v>
       </c>
       <c r="Q5">
-        <v>2345.282841846792</v>
+        <v>917.1548079495705</v>
       </c>
       <c r="R5">
-        <v>14071.69705108075</v>
+        <v>5502.928847697422</v>
       </c>
       <c r="S5">
-        <v>0.01626214028334224</v>
+        <v>0.0056502564609044</v>
       </c>
       <c r="T5">
-        <v>0.01141675166913151</v>
+        <v>0.003887045135484316</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>56.56930800000001</v>
+        <v>31.395717</v>
       </c>
       <c r="H6">
-        <v>169.707924</v>
+        <v>94.187151</v>
       </c>
       <c r="I6">
-        <v>0.1915403855399942</v>
+        <v>0.1018444938508805</v>
       </c>
       <c r="J6">
-        <v>0.1959965330721471</v>
+        <v>0.1031510374238487</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>139.7641523333333</v>
+        <v>171.5584106666666</v>
       </c>
       <c r="N6">
-        <v>419.292457</v>
+        <v>514.6752319999999</v>
       </c>
       <c r="O6">
-        <v>0.2862192112890951</v>
+        <v>0.3258144783240821</v>
       </c>
       <c r="P6">
-        <v>0.2945553119511906</v>
+        <v>0.331953319069988</v>
       </c>
       <c r="Q6">
-        <v>7906.361380703253</v>
+        <v>5386.199310260447</v>
       </c>
       <c r="R6">
-        <v>71157.25242632927</v>
+        <v>48475.79379234403</v>
       </c>
       <c r="S6">
-        <v>0.05482253807926633</v>
+        <v>0.03318241063420483</v>
       </c>
       <c r="T6">
-        <v>0.05773181994041814</v>
+        <v>0.03424132923835913</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,16 +850,16 @@
         <v>1</v>
       </c>
       <c r="G7">
-        <v>78.731425</v>
+        <v>78.73142499999999</v>
       </c>
       <c r="H7">
         <v>236.194275</v>
       </c>
       <c r="I7">
-        <v>0.2665800242529595</v>
+        <v>0.255396687684615</v>
       </c>
       <c r="J7">
-        <v>0.2727819534902172</v>
+        <v>0.2586731230443928</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>3.946674666666667</v>
+        <v>2.906846333333333</v>
       </c>
       <c r="N7">
-        <v>11.840024</v>
+        <v>8.720538999999999</v>
       </c>
       <c r="O7">
-        <v>0.008082287850277156</v>
+        <v>0.005520525738044089</v>
       </c>
       <c r="P7">
-        <v>0.008317683527585098</v>
+        <v>0.005624540846623205</v>
       </c>
       <c r="Q7">
-        <v>310.7273205180667</v>
+        <v>228.8601540793582</v>
       </c>
       <c r="R7">
-        <v>2796.5458846626</v>
+        <v>2059.741386714225</v>
       </c>
       <c r="S7">
-        <v>0.002154576491146284</v>
+        <v>0.001409923987774125</v>
       </c>
       <c r="T7">
-        <v>0.002268913961168064</v>
+        <v>0.001454917546486778</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,16 +912,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>78.731425</v>
+        <v>78.73142499999999</v>
       </c>
       <c r="H8">
         <v>236.194275</v>
       </c>
       <c r="I8">
-        <v>0.2665800242529595</v>
+        <v>0.255396687684615</v>
       </c>
       <c r="J8">
-        <v>0.2727819534902172</v>
+        <v>0.2586731230443928</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>557.408233</v>
       </c>
       <c r="O8">
-        <v>0.3805003933455167</v>
+        <v>0.3528665483720876</v>
       </c>
       <c r="P8">
-        <v>0.3915824222792467</v>
+        <v>0.3595150912979765</v>
       </c>
       <c r="Q8">
         <v>14628.51483027401</v>
@@ -948,10 +948,10 @@
         <v>131656.6334724661</v>
       </c>
       <c r="S8">
-        <v>0.1014338040863085</v>
+        <v>0.09012094764893418</v>
       </c>
       <c r="T8">
-        <v>0.1068166181017641</v>
+        <v>0.09299689144763761</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,16 +974,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>78.731425</v>
+        <v>78.73142499999999</v>
       </c>
       <c r="H9">
         <v>236.194275</v>
       </c>
       <c r="I9">
-        <v>0.2665800242529595</v>
+        <v>0.255396687684615</v>
       </c>
       <c r="J9">
-        <v>0.2727819534902172</v>
+        <v>0.2586731230443928</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>117.3394243333333</v>
+        <v>137.0717086666666</v>
       </c>
       <c r="N9">
-        <v>352.018273</v>
+        <v>411.2151259999999</v>
       </c>
       <c r="O9">
-        <v>0.2402962199184265</v>
+        <v>0.2603191943704447</v>
       </c>
       <c r="P9">
-        <v>0.2472948188906589</v>
+        <v>0.2652240042658267</v>
       </c>
       <c r="Q9">
-        <v>9238.300086443009</v>
+        <v>10791.85095051151</v>
       </c>
       <c r="R9">
-        <v>83144.70077798708</v>
+        <v>97126.65855460362</v>
       </c>
       <c r="S9">
-        <v>0.06405817213374862</v>
+        <v>0.06648465998293905</v>
       </c>
       <c r="T9">
-        <v>0.06745756378500338</v>
+        <v>0.06860632148978076</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1036,16 +1036,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>78.731425</v>
+        <v>78.73142499999999</v>
       </c>
       <c r="H10">
         <v>236.194275</v>
       </c>
       <c r="I10">
-        <v>0.2665800242529595</v>
+        <v>0.255396687684615</v>
       </c>
       <c r="J10">
-        <v>0.2727819534902172</v>
+        <v>0.2586731230443928</v>
       </c>
       <c r="K10">
         <v>2</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>41.458574</v>
+        <v>29.2127365</v>
       </c>
       <c r="N10">
-        <v>82.917148</v>
+        <v>58.425473</v>
       </c>
       <c r="O10">
-        <v>0.0849018875966847</v>
+        <v>0.05547925319534149</v>
       </c>
       <c r="P10">
-        <v>0.05824976335131885</v>
+        <v>0.03768304451958546</v>
       </c>
       <c r="Q10">
-        <v>3264.09260948795</v>
+        <v>2299.960372794512</v>
       </c>
       <c r="R10">
-        <v>19584.5556569277</v>
+        <v>13799.76223676707</v>
       </c>
       <c r="S10">
-        <v>0.02263314725464625</v>
+        <v>0.01416921750130631</v>
       </c>
       <c r="T10">
-        <v>0.01588948423731561</v>
+        <v>0.009747590811702062</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1098,16 +1098,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>78.731425</v>
+        <v>78.73142499999999</v>
       </c>
       <c r="H11">
         <v>236.194275</v>
       </c>
       <c r="I11">
-        <v>0.2665800242529595</v>
+        <v>0.255396687684615</v>
       </c>
       <c r="J11">
-        <v>0.2727819534902172</v>
+        <v>0.2586731230443928</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>139.7641523333333</v>
+        <v>171.5584106666666</v>
       </c>
       <c r="N11">
-        <v>419.292457</v>
+        <v>514.6752319999999</v>
       </c>
       <c r="O11">
-        <v>0.2862192112890951</v>
+        <v>0.3258144783240821</v>
       </c>
       <c r="P11">
-        <v>0.2945553119511906</v>
+        <v>0.331953319069988</v>
       </c>
       <c r="Q11">
-        <v>11003.83087712041</v>
+        <v>13507.03814252186</v>
       </c>
       <c r="R11">
-        <v>99034.47789408368</v>
+        <v>121563.3432826968</v>
       </c>
       <c r="S11">
-        <v>0.07630032428710991</v>
+        <v>0.08321193856366138</v>
       </c>
       <c r="T11">
-        <v>0.08034937340496608</v>
+        <v>0.08586740174878561</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>90.69984199999999</v>
+        <v>73.981791</v>
       </c>
       <c r="H12">
-        <v>272.099526</v>
+        <v>221.945373</v>
       </c>
       <c r="I12">
-        <v>0.3071043878616396</v>
+        <v>0.2399893609238683</v>
       </c>
       <c r="J12">
-        <v>0.3142491080532842</v>
+        <v>0.2430681386293663</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>3.946674666666667</v>
+        <v>2.906846333333333</v>
       </c>
       <c r="N12">
-        <v>11.840024</v>
+        <v>8.720538999999999</v>
       </c>
       <c r="O12">
-        <v>0.008082287850277156</v>
+        <v>0.005520525738044089</v>
       </c>
       <c r="P12">
-        <v>0.008317683527585098</v>
+        <v>0.005624540846623205</v>
       </c>
       <c r="Q12">
-        <v>357.9627686920693</v>
+        <v>215.053697901783</v>
       </c>
       <c r="R12">
-        <v>3221.664918228624</v>
+        <v>1935.483281116047</v>
       </c>
       <c r="S12">
-        <v>0.002482106062780933</v>
+        <v>0.001324867443836967</v>
       </c>
       <c r="T12">
-        <v>0.002613824629613111</v>
+        <v>0.001367146674233542</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>90.69984199999999</v>
+        <v>73.981791</v>
       </c>
       <c r="H13">
-        <v>272.099526</v>
+        <v>221.945373</v>
       </c>
       <c r="I13">
-        <v>0.3071043878616396</v>
+        <v>0.2399893609238683</v>
       </c>
       <c r="J13">
-        <v>0.3142491080532842</v>
+        <v>0.2430681386293663</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>557.408233</v>
       </c>
       <c r="O13">
-        <v>0.3805003933455167</v>
+        <v>0.3528665483720876</v>
       </c>
       <c r="P13">
-        <v>0.3915824222792467</v>
+        <v>0.3595150912979765</v>
       </c>
       <c r="Q13">
-        <v>16852.27955419973</v>
+        <v>13746.0197984951</v>
       </c>
       <c r="R13">
-        <v>151670.5159877976</v>
+        <v>123714.1781864559</v>
       </c>
       <c r="S13">
-        <v>0.116853340379488</v>
+        <v>0.08468421743522857</v>
       </c>
       <c r="T13">
-        <v>0.1230544269305978</v>
+        <v>0.08738666405096583</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>90.69984199999999</v>
+        <v>73.981791</v>
       </c>
       <c r="H14">
-        <v>272.099526</v>
+        <v>221.945373</v>
       </c>
       <c r="I14">
-        <v>0.3071043878616396</v>
+        <v>0.2399893609238683</v>
       </c>
       <c r="J14">
-        <v>0.3142491080532842</v>
+        <v>0.2430681386293663</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>117.3394243333333</v>
+        <v>137.0717086666666</v>
       </c>
       <c r="N14">
-        <v>352.018273</v>
+        <v>411.2151259999999</v>
       </c>
       <c r="O14">
-        <v>0.2402962199184265</v>
+        <v>0.2603191943704447</v>
       </c>
       <c r="P14">
-        <v>0.2472948188906589</v>
+        <v>0.2652240042658267</v>
       </c>
       <c r="Q14">
-        <v>10642.66724740429</v>
+        <v>10140.81050259022</v>
       </c>
       <c r="R14">
-        <v>95784.00522663859</v>
+        <v>91267.29452331198</v>
       </c>
       <c r="S14">
-        <v>0.07379602352351429</v>
+        <v>0.06247383709317927</v>
       </c>
       <c r="T14">
-        <v>0.077712176262588</v>
+        <v>0.06446750503672159</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>90.69984199999999</v>
+        <v>73.981791</v>
       </c>
       <c r="H15">
-        <v>272.099526</v>
+        <v>221.945373</v>
       </c>
       <c r="I15">
-        <v>0.3071043878616396</v>
+        <v>0.2399893609238683</v>
       </c>
       <c r="J15">
-        <v>0.3142491080532842</v>
+        <v>0.2430681386293663</v>
       </c>
       <c r="K15">
         <v>2</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>41.458574</v>
+        <v>29.2127365</v>
       </c>
       <c r="N15">
-        <v>82.917148</v>
+        <v>58.425473</v>
       </c>
       <c r="O15">
-        <v>0.0849018875966847</v>
+        <v>0.05547925319534149</v>
       </c>
       <c r="P15">
-        <v>0.05824976335131885</v>
+        <v>0.03768304451958546</v>
       </c>
       <c r="Q15">
-        <v>3760.286111345307</v>
+        <v>2161.210566281071</v>
       </c>
       <c r="R15">
-        <v>22561.71666807184</v>
+        <v>12967.26339768643</v>
       </c>
       <c r="S15">
-        <v>0.02607374221867759</v>
+        <v>0.01331443051888348</v>
       </c>
       <c r="T15">
-        <v>0.01830493617746683</v>
+        <v>0.009159547489263179</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>90.69984199999999</v>
+        <v>73.981791</v>
       </c>
       <c r="H16">
-        <v>272.099526</v>
+        <v>221.945373</v>
       </c>
       <c r="I16">
-        <v>0.3071043878616396</v>
+        <v>0.2399893609238683</v>
       </c>
       <c r="J16">
-        <v>0.3142491080532842</v>
+        <v>0.2430681386293663</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>139.7641523333333</v>
+        <v>171.5584106666666</v>
       </c>
       <c r="N16">
-        <v>419.292457</v>
+        <v>514.6752319999999</v>
       </c>
       <c r="O16">
-        <v>0.2862192112890951</v>
+        <v>0.3258144783240821</v>
       </c>
       <c r="P16">
-        <v>0.2945553119511906</v>
+        <v>0.331953319069988</v>
       </c>
       <c r="Q16">
-        <v>12676.58653389726</v>
+        <v>12692.1984822335</v>
       </c>
       <c r="R16">
-        <v>114089.2788050754</v>
+        <v>114229.7863401015</v>
       </c>
       <c r="S16">
-        <v>0.08789917567717884</v>
+        <v>0.07819200843274</v>
       </c>
       <c r="T16">
-        <v>0.09256374405301852</v>
+        <v>0.08068727537818211</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>20.144335</v>
+        <v>11.713978</v>
       </c>
       <c r="H17">
-        <v>40.28867</v>
+        <v>23.427956</v>
       </c>
       <c r="I17">
-        <v>0.06820754626071789</v>
+        <v>0.03799894617442086</v>
       </c>
       <c r="J17">
-        <v>0.04652958716345985</v>
+        <v>0.02565761826812535</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>3.946674666666667</v>
+        <v>2.906846333333333</v>
       </c>
       <c r="N17">
-        <v>11.840024</v>
+        <v>8.720538999999999</v>
       </c>
       <c r="O17">
-        <v>0.008082287850277156</v>
+        <v>0.005520525738044089</v>
       </c>
       <c r="P17">
-        <v>0.008317683527585098</v>
+        <v>0.005624540846623205</v>
       </c>
       <c r="Q17">
-        <v>79.50313662134666</v>
+        <v>34.05073399804733</v>
       </c>
       <c r="R17">
-        <v>477.01881972808</v>
+        <v>204.304403988284</v>
       </c>
       <c r="S17">
-        <v>0.0005512730224402172</v>
+        <v>0.0002097741603744423</v>
       </c>
       <c r="T17">
-        <v>0.000387018380694845</v>
+        <v>0.0001443123219761368</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>20.144335</v>
+        <v>11.713978</v>
       </c>
       <c r="H18">
-        <v>40.28867</v>
+        <v>23.427956</v>
       </c>
       <c r="I18">
-        <v>0.06820754626071789</v>
+        <v>0.03799894617442086</v>
       </c>
       <c r="J18">
-        <v>0.04652958716345985</v>
+        <v>0.02565761826812535</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>557.408233</v>
       </c>
       <c r="O18">
-        <v>0.3805003933455167</v>
+        <v>0.3528665483720876</v>
       </c>
       <c r="P18">
-        <v>0.3915824222792467</v>
+        <v>0.3595150912979765</v>
       </c>
       <c r="Q18">
-        <v>3742.872725770018</v>
+        <v>2176.489259460292</v>
       </c>
       <c r="R18">
-        <v>22457.23635462011</v>
+        <v>13058.93555676175</v>
       </c>
       <c r="S18">
-        <v>0.02595299818133568</v>
+        <v>0.01340855697834463</v>
       </c>
       <c r="T18">
-        <v>0.01822016844912095</v>
+        <v>0.009224300974153716</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>20.144335</v>
+        <v>11.713978</v>
       </c>
       <c r="H19">
-        <v>40.28867</v>
+        <v>23.427956</v>
       </c>
       <c r="I19">
-        <v>0.06820754626071789</v>
+        <v>0.03799894617442086</v>
       </c>
       <c r="J19">
-        <v>0.04652958716345985</v>
+        <v>0.02565761826812535</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>117.3394243333333</v>
+        <v>137.0717086666666</v>
       </c>
       <c r="N19">
-        <v>352.018273</v>
+        <v>411.2151259999999</v>
       </c>
       <c r="O19">
-        <v>0.2402962199184265</v>
+        <v>0.2603191943704447</v>
       </c>
       <c r="P19">
-        <v>0.2472948188906589</v>
+        <v>0.2652240042658267</v>
       </c>
       <c r="Q19">
-        <v>2363.724672477818</v>
+        <v>1605.654979743742</v>
       </c>
       <c r="R19">
-        <v>14182.34803486691</v>
+        <v>9633.929878462455</v>
       </c>
       <c r="S19">
-        <v>0.01639001553636171</v>
+        <v>0.009891855055051128</v>
       </c>
       <c r="T19">
-        <v>0.01150652583064493</v>
+        <v>0.00680501625699623</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>20.144335</v>
+        <v>11.713978</v>
       </c>
       <c r="H20">
-        <v>40.28867</v>
+        <v>23.427956</v>
       </c>
       <c r="I20">
-        <v>0.06820754626071789</v>
+        <v>0.03799894617442086</v>
       </c>
       <c r="J20">
-        <v>0.04652958716345985</v>
+        <v>0.02565761826812535</v>
       </c>
       <c r="K20">
         <v>2</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>41.458574</v>
+        <v>29.2127365</v>
       </c>
       <c r="N20">
-        <v>82.917148</v>
+        <v>58.425473</v>
       </c>
       <c r="O20">
-        <v>0.0849018875966847</v>
+        <v>0.05547925319534149</v>
       </c>
       <c r="P20">
-        <v>0.05824976335131885</v>
+        <v>0.03768304451958546</v>
       </c>
       <c r="Q20">
-        <v>835.1554032782899</v>
+        <v>342.197352680797</v>
       </c>
       <c r="R20">
-        <v>3340.62161311316</v>
+        <v>1368.789410723188</v>
       </c>
       <c r="S20">
-        <v>0.005790949425873142</v>
+        <v>0.002108153155966848</v>
       </c>
       <c r="T20">
-        <v>0.002710337441106099</v>
+        <v>0.0009668571714642966</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>20.144335</v>
+        <v>11.713978</v>
       </c>
       <c r="H21">
-        <v>40.28867</v>
+        <v>23.427956</v>
       </c>
       <c r="I21">
-        <v>0.06820754626071789</v>
+        <v>0.03799894617442086</v>
       </c>
       <c r="J21">
-        <v>0.04652958716345985</v>
+        <v>0.02565761826812535</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>139.7641523333333</v>
+        <v>171.5584106666666</v>
       </c>
       <c r="N21">
-        <v>419.292457</v>
+        <v>514.6752319999999</v>
       </c>
       <c r="O21">
-        <v>0.2862192112890951</v>
+        <v>0.3258144783240821</v>
       </c>
       <c r="P21">
-        <v>0.2945553119511906</v>
+        <v>0.331953319069988</v>
       </c>
       <c r="Q21">
-        <v>2815.455905593698</v>
+        <v>2009.631448264299</v>
       </c>
       <c r="R21">
-        <v>16892.73543356219</v>
+        <v>12057.78868958579</v>
       </c>
       <c r="S21">
-        <v>0.01952231009470714</v>
+        <v>0.01238060682468381</v>
       </c>
       <c r="T21">
-        <v>0.01370553706189303</v>
+        <v>0.008517131543534968</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>49.19389200000001</v>
+        <v>112.448217</v>
       </c>
       <c r="H22">
-        <v>147.581676</v>
+        <v>337.344651</v>
       </c>
       <c r="I22">
-        <v>0.1665676560846888</v>
+        <v>0.3647705113662153</v>
       </c>
       <c r="J22">
-        <v>0.1704428182208917</v>
+        <v>0.3694500826342669</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>3.946674666666667</v>
+        <v>2.906846333333333</v>
       </c>
       <c r="N22">
-        <v>11.840024</v>
+        <v>8.720538999999999</v>
       </c>
       <c r="O22">
-        <v>0.008082287850277156</v>
+        <v>0.005520525738044089</v>
       </c>
       <c r="P22">
-        <v>0.008317683527585098</v>
+        <v>0.005624540846623205</v>
       </c>
       <c r="Q22">
-        <v>194.152287311136</v>
+        <v>326.8696872763209</v>
       </c>
       <c r="R22">
-        <v>1747.370585800224</v>
+        <v>2941.827185486889</v>
       </c>
       <c r="S22">
-        <v>0.001346247743022424</v>
+        <v>0.002013724996476695</v>
       </c>
       <c r="T22">
-        <v>0.001417689421511092</v>
+        <v>0.002077987080564753</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>49.19389200000001</v>
+        <v>112.448217</v>
       </c>
       <c r="H23">
-        <v>147.581676</v>
+        <v>337.344651</v>
       </c>
       <c r="I23">
-        <v>0.1665676560846888</v>
+        <v>0.3647705113662153</v>
       </c>
       <c r="J23">
-        <v>0.1704428182208917</v>
+        <v>0.3694500826342669</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>557.408233</v>
       </c>
       <c r="O23">
-        <v>0.3805003933455167</v>
+        <v>0.3528665483720876</v>
       </c>
       <c r="P23">
-        <v>0.3915824222792467</v>
+        <v>0.3595150912979765</v>
       </c>
       <c r="Q23">
-        <v>9140.360138037613</v>
+        <v>20893.18731399019</v>
       </c>
       <c r="R23">
-        <v>82263.24124233851</v>
+        <v>188038.6858259117</v>
       </c>
       <c r="S23">
-        <v>0.06337905865886484</v>
+        <v>0.1287153112937177</v>
       </c>
       <c r="T23">
-        <v>0.0667424116190381</v>
+        <v>0.1328228801883035</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>49.19389200000001</v>
+        <v>112.448217</v>
       </c>
       <c r="H24">
-        <v>147.581676</v>
+        <v>337.344651</v>
       </c>
       <c r="I24">
-        <v>0.1665676560846888</v>
+        <v>0.3647705113662153</v>
       </c>
       <c r="J24">
-        <v>0.1704428182208917</v>
+        <v>0.3694500826342669</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>117.3394243333333</v>
+        <v>137.0717086666666</v>
       </c>
       <c r="N24">
-        <v>352.018273</v>
+        <v>411.2151259999999</v>
       </c>
       <c r="O24">
-        <v>0.2402962199184265</v>
+        <v>0.2603191943704447</v>
       </c>
       <c r="P24">
-        <v>0.2472948188906589</v>
+        <v>0.2652240042658267</v>
       </c>
       <c r="Q24">
-        <v>5772.382967996173</v>
+        <v>15413.46924071011</v>
       </c>
       <c r="R24">
-        <v>51951.44671196556</v>
+        <v>138721.223166391</v>
       </c>
       <c r="S24">
-        <v>0.04002557811782321</v>
+        <v>0.0949567656489483</v>
       </c>
       <c r="T24">
-        <v>0.0421496258631489</v>
+        <v>0.09798703029260084</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>49.19389200000001</v>
+        <v>112.448217</v>
       </c>
       <c r="H25">
-        <v>147.581676</v>
+        <v>337.344651</v>
       </c>
       <c r="I25">
-        <v>0.1665676560846888</v>
+        <v>0.3647705113662153</v>
       </c>
       <c r="J25">
-        <v>0.1704428182208917</v>
+        <v>0.3694500826342669</v>
       </c>
       <c r="K25">
         <v>2</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>41.458574</v>
+        <v>29.2127365</v>
       </c>
       <c r="N25">
-        <v>82.917148</v>
+        <v>58.425473</v>
       </c>
       <c r="O25">
-        <v>0.0849018875966847</v>
+        <v>0.05547925319534149</v>
       </c>
       <c r="P25">
-        <v>0.05824976335131885</v>
+        <v>0.03768304451958546</v>
       </c>
       <c r="Q25">
-        <v>2039.508611830008</v>
+        <v>3284.92013311582</v>
       </c>
       <c r="R25">
-        <v>12237.05167098005</v>
+        <v>19709.52079869492</v>
       </c>
       <c r="S25">
-        <v>0.01414190841414548</v>
+        <v>0.02023719555828045</v>
       </c>
       <c r="T25">
-        <v>0.009928253826298798</v>
+        <v>0.01392200391167161</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>49.19389200000001</v>
+        <v>112.448217</v>
       </c>
       <c r="H26">
-        <v>147.581676</v>
+        <v>337.344651</v>
       </c>
       <c r="I26">
-        <v>0.1665676560846888</v>
+        <v>0.3647705113662153</v>
       </c>
       <c r="J26">
-        <v>0.1704428182208917</v>
+        <v>0.3694500826342669</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>139.7641523333333</v>
+        <v>171.5584106666666</v>
       </c>
       <c r="N26">
-        <v>419.292457</v>
+        <v>514.6752319999999</v>
       </c>
       <c r="O26">
-        <v>0.2862192112890951</v>
+        <v>0.3258144783240821</v>
       </c>
       <c r="P26">
-        <v>0.2945553119511906</v>
+        <v>0.331953319069988</v>
       </c>
       <c r="Q26">
-        <v>6875.542615357548</v>
+        <v>19291.43739082045</v>
       </c>
       <c r="R26">
-        <v>61879.88353821794</v>
+        <v>173622.936517384</v>
       </c>
       <c r="S26">
-        <v>0.04767486315083287</v>
+        <v>0.1188475138687921</v>
       </c>
       <c r="T26">
-        <v>0.05020483749089482</v>
+        <v>0.1226401811611263</v>
       </c>
     </row>
   </sheetData>
